--- a/data/trans_orig/P16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC9F966-6E7F-4299-9161-C8006F504F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB661FE-FC5F-4667-ADA0-95CBBD0738DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43CD51D8-0DF9-48E2-A640-5440736A1B2F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5954A983-A12E-4965-8DDD-5924277A9D43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>50,46%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>56,36%</t>
+    <t>55,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>49,54%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>43,64%</t>
+    <t>44,25%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,43 +124,43 @@
     <t>85,82%</t>
   </si>
   <si>
-    <t>57,23%</t>
+    <t>57,54%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>54,87%</t>
+    <t>63,34%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>42,77%</t>
+    <t>42,46%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>45,13%</t>
+    <t>36,66%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>71,34%</t>
+    <t>68,98%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>78,8%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -187,13 +187,13 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>28,66%</t>
+    <t>31,02%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>21,2%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -202,37 +202,37 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>54,21%</t>
+    <t>53,94%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>83,25%</t>
+    <t>87,97%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>82,14%</t>
+    <t>81,39%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>45,79%</t>
+    <t>46,06%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>16,75%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>17,86%</t>
+    <t>18,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -241,7 +241,7 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>60,89%</t>
+    <t>65,25%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -250,13 +250,13 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>86,42%</t>
+    <t>87,1%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>39,11%</t>
+    <t>34,75%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -265,7 +265,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -274,250 +274,247 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
     <t>1,7%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,52%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -526,9 +523,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
     <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
   </si>
   <si>
@@ -541,7 +535,7 @@
     <t>91,51%</t>
   </si>
   <si>
-    <t>57,45%</t>
+    <t>65,1%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -550,13 +544,13 @@
     <t>96,29%</t>
   </si>
   <si>
-    <t>80,61%</t>
+    <t>84,83%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>42,55%</t>
+    <t>34,9%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -565,79 +559,73 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>19,39%</t>
+    <t>15,17%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>68,11%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>79,5%</t>
+    <t>82,22%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>31,89%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>20,5%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>78,76%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>92,63%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>21,24%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>7,37%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -661,97 +649,91 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B717F4-CE60-4D3D-A5ED-848179B82B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DABCA-4782-4DAE-A389-257D6EC8B8F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2382,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F9A04-07BA-47AE-B4AF-622FE317D2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C34B4FB-A7BD-43C1-B8F6-5408315CCA64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3004,7 +2986,7 @@
         <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3022,13 +3004,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3043,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3052,13 +3034,13 @@
         <v>1024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3144,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3159,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3183,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3198,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3213,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3314,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3353,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3469,10 +3451,10 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3469,13 @@
         <v>1024</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3502,13 +3484,13 @@
         <v>1904</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3517,13 +3499,13 @@
         <v>2928</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCEA6DD-FF56-4520-9BF4-1A86A7CAF4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F5FBD4-E658-4E2F-9E8F-D5190B292CA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3758,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3812,7 +3794,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +3862,10 @@
         <v>10024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3898,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3910,10 +3892,10 @@
         <v>24146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3931,13 +3913,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3952,7 +3934,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3961,13 +3943,13 @@
         <v>930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +4017,10 @@
         <v>17502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4050,10 +4032,10 @@
         <v>33290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4065,13 +4047,13 @@
         <v>50792</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4068,13 @@
         <v>2102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4101,13 +4083,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4116,13 +4098,13 @@
         <v>4197</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +4172,10 @@
         <v>25187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4208,7 +4190,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4220,10 +4202,10 @@
         <v>75339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4241,13 +4223,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4262,7 +4244,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4271,13 +4253,13 @@
         <v>1125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4363,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4378,7 +4360,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4402,7 +4384,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4417,7 +4399,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4432,7 +4414,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +4482,10 @@
         <v>27912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4518,10 +4500,10 @@
         <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -4530,13 +4512,13 @@
         <v>121020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>1059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4569,10 +4551,10 @@
         <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4581,13 +4563,13 @@
         <v>4221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4637,13 @@
         <v>111780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -4670,28 +4652,28 @@
         <v>263471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
       </c>
       <c r="N22" s="7">
-        <v>375250</v>
+        <v>375251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4688,13 @@
         <v>5217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4721,13 +4703,13 @@
         <v>5257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -4736,13 +4718,13 @@
         <v>10474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,7 +4766,7 @@
         <v>356</v>
       </c>
       <c r="N24" s="7">
-        <v>385724</v>
+        <v>385725</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB661FE-FC5F-4667-ADA0-95CBBD0738DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB0807A-64DA-422E-B5AC-CAAFA7A0A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5954A983-A12E-4965-8DDD-5924277A9D43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73342BA2-9C78-4CF7-A21A-858223C07C33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>50,08%</t>
+    <t>49,51%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>55,75%</t>
+    <t>49,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>49,92%</t>
+    <t>50,49%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>44,25%</t>
+    <t>50,03%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,43 +124,43 @@
     <t>85,82%</t>
   </si>
   <si>
-    <t>57,54%</t>
+    <t>60,74%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>63,34%</t>
+    <t>63,86%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>42,46%</t>
+    <t>39,26%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>36,66%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>68,98%</t>
+    <t>67,43%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>78,8%</t>
+    <t>76,29%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -187,13 +187,13 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>32,57%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -202,37 +202,37 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>53,94%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>87,97%</t>
+    <t>85,61%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>81,39%</t>
+    <t>82,2%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>46,06%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>18,61%</t>
+    <t>17,8%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -241,7 +241,7 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>65,25%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -250,13 +250,13 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>87,1%</t>
+    <t>85,95%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>34,75%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -265,7 +265,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>12,9%</t>
+    <t>14,05%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -274,7 +274,7 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>85,97%</t>
+    <t>85,38%</t>
   </si>
   <si>
     <t>98,53%</t>
@@ -283,10 +283,10 @@
     <t>95,76%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -295,64 +295,64 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>14,03%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -385,13 +385,13 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>72,63%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>77,92%</t>
+    <t>82,76%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -400,13 +400,13 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>27,37%</t>
+    <t>35,28%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>22,08%</t>
+    <t>17,24%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -415,13 +415,13 @@
     <t>97,7%</t>
   </si>
   <si>
-    <t>90,34%</t>
+    <t>87,99%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>92,07%</t>
+    <t>91,8%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -430,33 +430,39 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>9,66%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,93%</t>
+    <t>8,2%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>79,39%</t>
+    <t>80,34%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
+    <t>94,62%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>19,66%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
+    <t>5,38%</t>
+  </si>
+  <si>
     <t>87,39%</t>
   </si>
   <si>
@@ -490,31 +496,34 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>94,62%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
+    <t>98,01%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -523,7 +532,10 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -535,7 +547,7 @@
     <t>91,51%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -544,13 +556,13 @@
     <t>96,29%</t>
   </si>
   <si>
-    <t>84,83%</t>
+    <t>77,4%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>34,9%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -559,73 +571,67 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>82,22%</t>
+    <t>81,87%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>18,13%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>80,52%</t>
+    <t>78,17%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>92,63%</t>
+    <t>92,72%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>19,48%</t>
+    <t>21,83%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>7,37%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -649,52 +655,58 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -703,7 +715,7 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>95,3%</t>
   </si>
   <si>
     <t>98,67%</t>
@@ -712,10 +724,10 @@
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -724,7 +736,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -733,7 +745,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,7%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DABCA-4782-4DAE-A389-257D6EC8B8F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1843F9F7-57AC-498A-A679-922B26A63468}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2364,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C34B4FB-A7BD-43C1-B8F6-5408315CCA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DEBA8D-18FC-4AE5-A6EC-E675B9961C34}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2986,7 +2998,7 @@
         <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3004,13 +3016,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3025,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3034,13 +3046,13 @@
         <v>1024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3126,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3141,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3165,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3195,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3296,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3335,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3350,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,10 +3430,10 @@
         <v>111894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -3433,10 +3445,10 @@
         <v>248728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3448,13 +3460,13 @@
         <v>360623</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3481,13 @@
         <v>1024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3484,13 +3496,13 @@
         <v>1904</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3499,13 +3511,13 @@
         <v>2928</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F5FBD4-E658-4E2F-9E8F-D5190B292CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A47C86-41E2-4F7C-82E2-114D4EC5AE81}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3794,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,10 +3874,10 @@
         <v>10024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3880,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3892,10 +3904,10 @@
         <v>24146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3913,13 +3925,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3934,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3943,13 +3955,13 @@
         <v>930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4029,10 @@
         <v>17502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4032,10 +4044,10 @@
         <v>33290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4047,13 +4059,13 @@
         <v>50792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4080,13 @@
         <v>2102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4083,13 +4095,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4098,13 +4110,13 @@
         <v>4197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,10 +4184,10 @@
         <v>25187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4190,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4205,7 +4217,7 @@
         <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4223,13 +4235,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4244,7 +4256,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4259,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4345,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4360,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4384,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4399,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4414,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,10 +4494,10 @@
         <v>27912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4500,10 +4512,10 @@
         <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -4512,13 +4524,13 @@
         <v>121020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4545,13 @@
         <v>1059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4551,10 +4563,10 @@
         <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4563,13 +4575,13 @@
         <v>4221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4649,13 @@
         <v>111780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -4652,13 +4664,13 @@
         <v>263471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4667,13 +4679,13 @@
         <v>375251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4700,13 @@
         <v>5217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4703,13 +4715,13 @@
         <v>5257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -4718,13 +4730,13 @@
         <v>10474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB0807A-64DA-422E-B5AC-CAAFA7A0A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED09B79-B053-44CA-9900-18F1F8F48198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73342BA2-9C78-4CF7-A21A-858223C07C33}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3FD2117-3CC2-41FB-8129-A7194839AD12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="238">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>49,51%</t>
+    <t>50,46%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>49,97%</t>
+    <t>56,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>50,49%</t>
+    <t>49,54%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>50,03%</t>
+    <t>43,64%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,19 +124,19 @@
     <t>85,82%</t>
   </si>
   <si>
-    <t>60,74%</t>
+    <t>57,23%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>63,86%</t>
+    <t>54,87%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>68,74%</t>
+    <t>70,85%</t>
   </si>
   <si>
     <t>96,33%</t>
@@ -145,13 +145,13 @@
     <t>14,18%</t>
   </si>
   <si>
-    <t>39,26%</t>
+    <t>42,77%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>45,13%</t>
   </si>
   <si>
     <t>11,7%</t>
@@ -160,7 +160,7 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>31,26%</t>
+    <t>29,15%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>67,43%</t>
+    <t>71,34%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>76,29%</t>
+    <t>81,36%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -187,13 +187,13 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>32,57%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -202,37 +202,37 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>60,36%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,61%</t>
+    <t>83,25%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>82,2%</t>
+    <t>82,14%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>39,64%</t>
+    <t>45,79%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,39%</t>
+    <t>16,75%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>17,8%</t>
+    <t>17,86%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -241,7 +241,7 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>62,88%</t>
+    <t>60,89%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -250,13 +250,13 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>85,95%</t>
+    <t>86,42%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>37,12%</t>
+    <t>39,11%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -265,7 +265,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -274,364 +274,370 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>85,38%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>6,41%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -655,97 +661,97 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1843F9F7-57AC-498A-A679-922B26A63468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D68813F-E67C-4CAA-B780-E401E1FFEC65}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2376,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DEBA8D-18FC-4AE5-A6EC-E675B9961C34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C49D4-0563-45A8-9C48-D962DAD546A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3308,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3347,7 +3353,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3362,7 +3368,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,10 +3436,10 @@
         <v>111894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -3445,10 +3451,10 @@
         <v>248728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3460,13 +3466,13 @@
         <v>360623</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3487,13 @@
         <v>1024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3496,13 +3502,13 @@
         <v>1904</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3511,13 +3517,13 @@
         <v>2928</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A47C86-41E2-4F7C-82E2-114D4EC5AE81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C05C6E-A811-4C59-8E0D-122B3C2BC045}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3752,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3806,7 +3812,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,10 +3880,10 @@
         <v>10024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3892,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3904,10 +3910,10 @@
         <v>24146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3925,13 +3931,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3946,7 +3952,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3955,13 +3961,13 @@
         <v>930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +4035,10 @@
         <v>17502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4044,10 +4050,10 @@
         <v>33290</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4059,13 +4065,13 @@
         <v>50792</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,7 +4086,7 @@
         <v>2102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
@@ -4214,10 +4220,10 @@
         <v>75339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4235,13 +4241,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4256,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4265,13 +4271,13 @@
         <v>1125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4357,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4372,7 +4378,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4396,7 +4402,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4411,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4426,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,10 +4500,10 @@
         <v>27912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4512,10 +4518,10 @@
         <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -4524,13 +4530,13 @@
         <v>121020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4551,13 @@
         <v>1059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4563,10 +4569,10 @@
         <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4575,13 +4581,13 @@
         <v>4221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4655,13 @@
         <v>111780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -4664,28 +4670,28 @@
         <v>263471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
       </c>
       <c r="N22" s="7">
-        <v>375251</v>
+        <v>375250</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4706,13 @@
         <v>5217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4715,13 +4721,13 @@
         <v>5257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -4730,13 +4736,13 @@
         <v>10474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4784,7 @@
         <v>356</v>
       </c>
       <c r="N24" s="7">
-        <v>385725</v>
+        <v>385724</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED09B79-B053-44CA-9900-18F1F8F48198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6AA3E26-8134-4F86-92FC-923FC268CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3FD2117-3CC2-41FB-8129-A7194839AD12}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB69ED2-9FE0-4AD6-9598-A64F0355DA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="257">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>43,64%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>85,82%</t>
@@ -163,7 +163,7 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -196,7 +196,7 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>89,46%</t>
@@ -235,7 +235,7 @@
     <t>17,86%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>87,82%</t>
@@ -268,43 +268,76 @@
     <t>13,58%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>93,32%</t>
@@ -412,9 +445,6 @@
     <t>89,47%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
     <t>88,11%</t>
   </si>
   <si>
@@ -427,9 +457,6 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>11,89%</t>
   </si>
   <si>
@@ -463,28 +490,46 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>95,93%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>4,07%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>99,09%</t>
@@ -544,9 +589,6 @@
     <t>57,45%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
     <t>96,29%</t>
   </si>
   <si>
@@ -559,9 +601,6 @@
     <t>42,55%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
     <t>3,71%</t>
   </si>
   <si>
@@ -616,9 +655,6 @@
     <t>78,76%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
     <t>98,53%</t>
   </si>
   <si>
@@ -631,9 +667,6 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>1,47%</t>
   </si>
   <si>
@@ -658,46 +691,70 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>95,54%</t>
@@ -1163,8 +1220,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D68813F-E67C-4CAA-B780-E401E1FFEC65}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D7926-5870-441D-896B-1A666C8C158D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2056,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>26145</v>
+        <v>13434</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -2071,34 +2128,34 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>60768</v>
+        <v>34360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>86913</v>
+        <v>47794</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,37 +2176,37 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>3852</v>
+        <v>2931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>3852</v>
+        <v>2931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>26145</v>
+        <v>13434</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2173,10 +2230,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I21" s="7">
-        <v>64620</v>
+        <v>37291</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2188,10 +2245,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N21" s="7">
-        <v>90765</v>
+        <v>50725</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2205,46 +2262,46 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>75190</v>
+        <v>12711</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>169851</v>
+        <v>26408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>245042</v>
+        <v>39119</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>94</v>
@@ -2253,7 +2310,7 @@
         <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,49 +2319,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>5383</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>921</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>921</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H23" s="7">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9351</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="7">
-        <v>14</v>
-      </c>
-      <c r="N23" s="7">
-        <v>14733</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,63 +2370,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12711</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>23</v>
+      </c>
+      <c r="I24" s="7">
+        <v>27329</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>40040</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>75190</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>169851</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="7">
+        <v>243</v>
+      </c>
+      <c r="N25" s="7">
+        <v>245042</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5383</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7">
+        <v>9351</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>14733</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>81</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>80573</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>176</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>179202</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>257</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>259775</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2382,8 +2595,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C49D4-0563-45A8-9C48-D962DAD546A3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0BEF93-F309-4A1C-8D08-5A97AE75DC12}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2399,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2509,7 +2722,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2524,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2539,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2563,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2578,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2593,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2676,10 +2889,10 @@
         <v>14208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2691,10 +2904,10 @@
         <v>28579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2718,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2727,13 +2940,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2742,13 +2955,13 @@
         <v>969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2831,10 +3044,10 @@
         <v>39717</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2846,10 +3059,10 @@
         <v>59611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2873,7 +3086,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2882,13 +3095,13 @@
         <v>935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2897,13 +3110,13 @@
         <v>935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,10 +3184,10 @@
         <v>24671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2989,7 +3202,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3001,10 +3214,10 @@
         <v>77967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3022,13 +3235,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3043,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3052,13 +3265,13 @@
         <v>1024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3144,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3159,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3183,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3198,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3213,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,46 +3488,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>35732</v>
+        <v>16389</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>89456</v>
+        <v>38452</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>125189</v>
+        <v>54841</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3338,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3353,7 +3566,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3368,7 +3581,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>35732</v>
+        <v>16389</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3392,10 +3605,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7">
-        <v>89456</v>
+        <v>38452</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3407,10 +3620,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="N21" s="7">
-        <v>125189</v>
+        <v>54841</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3424,55 +3637,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>111894</v>
+        <v>19344</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>248728</v>
+        <v>51004</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>60</v>
+      </c>
+      <c r="N22" s="7">
+        <v>70348</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="7">
-        <v>326</v>
-      </c>
-      <c r="N22" s="7">
-        <v>360623</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,49 +3694,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1904</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2928</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,63 +3745,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19344</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>45</v>
+      </c>
+      <c r="I24" s="7">
+        <v>51004</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>60</v>
+      </c>
+      <c r="N24" s="7">
+        <v>70348</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111894</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>231</v>
+      </c>
+      <c r="I25" s="7">
+        <v>248728</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>326</v>
+      </c>
+      <c r="N25" s="7">
+        <v>360623</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1024</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1904</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2928</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>96</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>112918</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>233</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>250632</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>329</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>363551</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3601,8 +3970,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C05C6E-A811-4C59-8E0D-122B3C2BC045}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF60B716-7B1A-4105-A554-7837C2BBCF03}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3618,7 +3987,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3758,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3812,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +4249,10 @@
         <v>10024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3898,7 +4267,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3910,10 +4279,10 @@
         <v>24146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3931,13 +4300,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3952,7 +4321,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3961,13 +4330,13 @@
         <v>930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +4404,10 @@
         <v>17502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4050,10 +4419,10 @@
         <v>33290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4065,13 +4434,13 @@
         <v>50792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4455,13 @@
         <v>2102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4101,13 +4470,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4116,13 +4485,13 @@
         <v>4197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +4559,10 @@
         <v>25187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4208,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4220,10 +4589,10 @@
         <v>75339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4241,13 +4610,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4262,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4271,13 +4640,13 @@
         <v>1125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4363,7 +4732,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4378,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4402,7 +4771,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4417,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4432,7 +4801,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,49 +4863,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27912</v>
+        <v>12322</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>93108</v>
+        <v>44227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>121020</v>
+        <v>56549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4920,13 @@
         <v>1059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4566,13 +4935,13 @@
         <v>3162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4581,13 +4950,13 @@
         <v>4221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,10 +4965,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>28971</v>
+        <v>13381</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4611,10 +4980,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>96270</v>
+        <v>47389</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4626,10 +4995,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="N21" s="7">
-        <v>125241</v>
+        <v>60770</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4643,55 +5012,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>111780</v>
+        <v>15591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>263471</v>
+        <v>48881</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>375250</v>
+        <v>64471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,49 +5069,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>5217</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>5257</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>10474</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,63 +5120,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>15591</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>37</v>
+      </c>
+      <c r="I24" s="7">
+        <v>48881</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>55</v>
+      </c>
+      <c r="N24" s="7">
+        <v>64471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>107</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111780</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="7">
+        <v>239</v>
+      </c>
+      <c r="I25" s="7">
+        <v>263471</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="7">
+        <v>346</v>
+      </c>
+      <c r="N25" s="7">
+        <v>375251</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5217</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5257</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="7">
+        <v>10</v>
+      </c>
+      <c r="N26" s="7">
+        <v>10474</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>112</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>116997</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>244</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>268728</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>356</v>
       </c>
-      <c r="N24" s="7">
-        <v>385724</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="N27" s="7">
+        <v>385725</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
